--- a/BPM PROJECT/DocMan/DocMan.xlsx
+++ b/BPM PROJECT/DocMan/DocMan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Project Defined" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Scope</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>yes, to retrieve data</t>
+  </si>
+  <si>
+    <t>Aux Jobs - Export to CSV</t>
   </si>
 </sst>
 </file>
@@ -414,11 +417,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,10 +931,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:C38"/>
+  <dimension ref="B2:C39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -943,10 +946,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -968,7 +971,7 @@
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1056,19 +1059,19 @@
       <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
@@ -1096,7 +1099,7 @@
       <c r="B24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
@@ -1110,7 +1113,7 @@
       <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
@@ -1194,7 +1197,15 @@
       <c r="B38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1230,7 +1241,7 @@
   </sheetPr>
   <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>

--- a/BPM PROJECT/DocMan/DocMan.xlsx
+++ b/BPM PROJECT/DocMan/DocMan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Scope</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>Aux Jobs - Export to CSV</t>
+  </si>
+  <si>
+    <t>System Adjustments</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>added permissions: HomefrontDocs added sharing permissions</t>
+  </si>
+  <si>
+    <t>added permissions: HomefromDocs security permissions set to everyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added WEBDAV…not nessissary </t>
   </si>
 </sst>
 </file>
@@ -931,10 +949,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:C39"/>
+  <dimension ref="B2:C43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1205,6 +1223,36 @@
       </c>
       <c r="C39" s="13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
